--- a/dados_mercado.xlsx
+++ b/dados_mercado.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -477,10 +477,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11579968088.67</v>
+        <v>8467950965.95</v>
       </c>
       <c r="D2" t="n">
-        <v>34.01</v>
+        <v>32.91</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4391461422.98</v>
+        <v>3443353114.68</v>
       </c>
       <c r="D3" t="n">
-        <v>12.9</v>
+        <v>13.38</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4278664436.78</v>
+        <v>2580024631.84</v>
       </c>
       <c r="D4" t="n">
-        <v>12.57</v>
+        <v>10.03</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -552,84 +552,84 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Gate</t>
+          <t>AscendEX (Bitmax)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>gate</t>
+          <t>bitmax</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2023145506.98</v>
+        <v>1567058847.88</v>
       </c>
       <c r="D5" t="n">
-        <v>5.94</v>
+        <v>6.09</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>908</t>
+          <t>131</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://gate.io/</t>
+          <t>https://www.bitmax.io/</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DigiFinex</t>
+          <t>Gate</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>digifinex</t>
+          <t>gate</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1721723949.93</v>
+        <v>1474955567.15</v>
       </c>
       <c r="D6" t="n">
-        <v>5.06</v>
+        <v>5.73</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>909</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.digifinex.com/</t>
+          <t>https://gate.io/</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AscendEX (Bitmax)</t>
+          <t>DigiFinex</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>bitmax</t>
+          <t>digifinex</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1580090834.6</v>
+        <v>1306508020.41</v>
       </c>
       <c r="D7" t="n">
-        <v>4.64</v>
+        <v>5.08</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>101</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.bitmax.io/</t>
+          <t>https://www.digifinex.com/</t>
         </is>
       </c>
     </row>
@@ -645,10 +645,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1317512164.26</v>
+        <v>1082868085.2</v>
       </c>
       <c r="D8" t="n">
-        <v>3.87</v>
+        <v>4.21</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -664,56 +664,56 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>WhiteBIT</t>
+          <t>Huobi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>whitebit</t>
+          <t>huobi</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1168237059.15</v>
+        <v>1034550467.69</v>
       </c>
       <c r="D9" t="n">
-        <v>3.43</v>
+        <v>4.02</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>181</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://whitebit.com</t>
+          <t>https://www.hbg.com/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Huobi</t>
+          <t>WhiteBIT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>huobi</t>
+          <t>whitebit</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1106162298.96</v>
+        <v>840337273.97</v>
       </c>
       <c r="D10" t="n">
-        <v>3.25</v>
+        <v>3.27</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>95</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.hbg.com/</t>
+          <t>https://whitebit.com</t>
         </is>
       </c>
     </row>
@@ -729,14 +729,14 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1019429198.14</v>
+        <v>766098685.09</v>
       </c>
       <c r="D11" t="n">
-        <v>2.99</v>
+        <v>2.98</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>130</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -757,14 +757,14 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>857633745.04</v>
+        <v>629028884.66</v>
       </c>
       <c r="D12" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>364</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -785,10 +785,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>653291359.21</v>
+        <v>468582443.26</v>
       </c>
       <c r="D13" t="n">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -813,14 +813,14 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>416077912.62</v>
+        <v>330484331.75</v>
       </c>
       <c r="D14" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>344966592.96</v>
+        <v>329001746.69</v>
       </c>
       <c r="D15" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -860,196 +860,196 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>ProBit</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>gemini</t>
+          <t>probit</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>215202246.91</v>
+        <v>247875378.06</v>
       </c>
       <c r="D16" t="n">
-        <v>0.63</v>
+        <v>0.96</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>220</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://gemini.com/</t>
+          <t>https://www.probit.com/en-us/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dex-Trade</t>
+          <t>Gemini</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>dex-trade</t>
+          <t>gemini</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>178706076.25</v>
+        <v>173714181.82</v>
       </c>
       <c r="D17" t="n">
-        <v>0.52</v>
+        <v>0.68</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://dex-trade.com/</t>
+          <t>https://gemini.com/</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HitBTC</t>
+          <t>Dex-Trade</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>hitbtc</t>
+          <t>dex-trade</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>149095011.7</v>
+        <v>135219503.28</v>
       </c>
       <c r="D18" t="n">
-        <v>0.44</v>
+        <v>0.53</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://hitbtc.com/</t>
+          <t>https://dex-trade.com/</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Bitfinex</t>
+          <t>HitBTC</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>bitfinex</t>
+          <t>hitbtc</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>135729960.81</v>
+        <v>122717433.31</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4</v>
+        <v>0.48</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>171</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://bitfinex.com</t>
+          <t>https://hitbtc.com/</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BTCTurk</t>
+          <t>Bitfinex</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>btcturk</t>
+          <t>bitfinex</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>129296515.17</v>
+        <v>114128394.59</v>
       </c>
       <c r="D20" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>112</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.btcturk.com/</t>
+          <t>https://bitfinex.com</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>coincheck</t>
+          <t>BTCTurk</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>coincheck</t>
+          <t>btcturk</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>123804287.76</v>
+        <v>104100392.59</v>
       </c>
       <c r="D21" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>87</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>coincheck</t>
+          <t>https://www.btcturk.com/</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ProBit</t>
+          <t>coincheck</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>probit</t>
+          <t>coincheck</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>113846624.51</v>
+        <v>89417963.34</v>
       </c>
       <c r="D22" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.probit.com/en-us/</t>
+          <t>coincheck</t>
         </is>
       </c>
     </row>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>74020901.97</v>
+        <v>47177732.73</v>
       </c>
       <c r="D23" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1084,28 +1084,28 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Bitbank</t>
+          <t>Exmo</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>bitbank</t>
+          <t>exmo</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>49515343.32</v>
+        <v>42088592.71</v>
       </c>
       <c r="D24" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.bibank.com</t>
+          <t>https://www.exmo.com/</t>
         </is>
       </c>
     </row>
@@ -1121,10 +1121,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>48902182.92</v>
+        <v>41995547.74</v>
       </c>
       <c r="D25" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1140,308 +1140,308 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>UNISWAP UNIV3 (Ethereum)</t>
+          <t>Independent Reserve</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>uniswap-1-univ3</t>
+          <t>independentreserve</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>47931842.67</v>
+        <v>38539835.29</v>
       </c>
       <c r="D26" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>96</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://uniswap.org/</t>
+          <t>https://www.independentreserve.com/</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Exmo</t>
+          <t>Bitbank</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>exmo</t>
+          <t>bitbank</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>45255791.77</v>
+        <v>33878634.77</v>
       </c>
       <c r="D27" t="n">
         <v>0.13</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.exmo.com/</t>
+          <t>https://www.bibank.com</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Independent Reserve</t>
+          <t>Bitso</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>independentreserve</t>
+          <t>bitso</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>42983245.26</v>
+        <v>30213845.25</v>
       </c>
       <c r="D28" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.independentreserve.com/</t>
+          <t>https://www.bitso.com/</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Bitso</t>
+          <t>AERODROME UNIV2 (Base)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>bitso</t>
+          <t>aerodrome-8453-univ2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>32762724.39</v>
+        <v>25918073.17</v>
       </c>
       <c r="D29" t="n">
         <v>0.1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.bitso.com/</t>
+          <t>https://aerodrome.finance/</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>AERODROME UNIV2 (Base)</t>
+          <t>Itbit</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>aerodrome-8453-univ2</t>
+          <t>itbit</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>26554422.51</v>
+        <v>21032501.81</v>
       </c>
       <c r="D30" t="n">
         <v>0.08</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://aerodrome.finance/</t>
+          <t>https://www.itbit.com/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Itbit</t>
+          <t>UNISWAP UNIV3 (Ethereum)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>itbit</t>
+          <t>uniswap-1-univ3</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>24820710.47</v>
+        <v>20392616.29</v>
       </c>
       <c r="D31" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.itbit.com/</t>
+          <t>https://uniswap.org/</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Luno</t>
+          <t>Indodax</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>luno</t>
+          <t>indodax</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>20112949.95</v>
+        <v>19071774.15</v>
       </c>
       <c r="D32" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>143</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.luno.com/</t>
+          <t>https://indodax.com/</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Indodax</t>
+          <t>Luno</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>indodax</t>
+          <t>luno</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>19225305.18</v>
+        <v>17912311.24</v>
       </c>
       <c r="D33" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://indodax.com/</t>
+          <t>https://www.luno.com/</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PANCAKE UNIV3 (Ethereum)</t>
+          <t>KickEX</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pancake-1-univ3</t>
+          <t>kickex</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>17019939.4</v>
+        <v>16805526.72</v>
       </c>
       <c r="D34" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://pancakeswap.finance/</t>
+          <t>https://kickex.com</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>KickEX</t>
+          <t>Max</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>kickex</t>
+          <t>max-exchange</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>16885815.43</v>
+        <v>11245245.72</v>
       </c>
       <c r="D35" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://kickex.com</t>
+          <t>https://max.maicoin.com/</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Max</t>
+          <t>PANCAKE UNIV3 (Ethereum)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>max-exchange</t>
+          <t>pancake-1-univ3</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>14274146.15</v>
+        <v>11073708.33</v>
       </c>
       <c r="D36" t="n">
         <v>0.04</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://max.maicoin.com/</t>
+          <t>https://pancakeswap.finance/</t>
         </is>
       </c>
     </row>
@@ -1457,10 +1457,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>13822521.93</v>
+        <v>8973887.960000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1476,16 +1476,16 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>UNISWAP UNIV3 (Polygon)</t>
+          <t>PANCAKE UNIV3 (Arbitrum)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>uniswap-137-univ3</t>
+          <t>pancake-42161-univ3</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>10109865.68</v>
+        <v>6875561.83</v>
       </c>
       <c r="D38" t="n">
         <v>0.03</v>
@@ -1497,110 +1497,110 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://uniswap.org/</t>
+          <t>https://pancakeswap.finance/</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Binance.US</t>
+          <t>UNISWAP UNIV3 (Polygon)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>binanceus</t>
+          <t>uniswap-137-univ3</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>9808223.560000001</v>
+        <v>6863124.32</v>
       </c>
       <c r="D39" t="n">
         <v>0.03</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://www.binance.us/</t>
+          <t>https://uniswap.org/</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BTCMarket</t>
+          <t>Binance.US</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>btcmarket</t>
+          <t>binanceus</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>8183301.1</v>
+        <v>6859441.39</v>
       </c>
       <c r="D40" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://www.btcmarkets.net/</t>
+          <t>https://www.binance.us/</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>UNISWAP UNIV2 (Ethereum)</t>
+          <t>BTCMarket</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>uniswap-1-univ2</t>
+          <t>btcmarket</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>6249655.49</v>
+        <v>6203146.07</v>
       </c>
       <c r="D41" t="n">
         <v>0.02</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://uniswap.org/</t>
+          <t>https://www.btcmarkets.net/</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PANCAKE UNIV3 (Arbitrum)</t>
+          <t>UNISWAP UNIV2 (Ethereum)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pancake-42161-univ3</t>
+          <t>uniswap-1-univ2</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5149850.51</v>
+        <v>3843574.21</v>
       </c>
       <c r="D42" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://pancakeswap.finance/</t>
+          <t>https://uniswap.org/</t>
         </is>
       </c>
     </row>
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2077179.01</v>
+        <v>1698451.28</v>
       </c>
       <c r="D43" t="n">
         <v>0.01</v>
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2067061.67</v>
+        <v>1573271.58</v>
       </c>
       <c r="D44" t="n">
         <v>0.01</v>
@@ -1672,112 +1672,112 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>UNISWAP UNIV3 (Base)</t>
+          <t>BTCBOX</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>uniswap-8453-univ3</t>
+          <t>btcbox</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1773063.98</v>
+        <v>1386608.18</v>
       </c>
       <c r="D45" t="n">
         <v>0.01</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://uniswap.org/</t>
+          <t>https://www.btcbox.co.jp</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BTCBOX</t>
+          <t>UNISWAP UNIV3 (Base)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>btcbox</t>
+          <t>uniswap-8453-univ3</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1710293.62</v>
+        <v>1074004.29</v>
       </c>
       <c r="D46" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://www.btcbox.co.jp</t>
+          <t>https://uniswap.org/</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Tidex</t>
+          <t>RAYDIUM (Solana)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>tidex</t>
+          <t>raydium-900</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>926875.95</v>
+        <v>808532.72</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://tidex.com/</t>
+          <t>https://curve.fi/</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>RAYDIUM (Solana)</t>
+          <t>Tidex</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>raydium-900</t>
+          <t>tidex</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>800664.58</v>
+        <v>683083.53</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://curve.fi/</t>
+          <t>https://tidex.com/</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>288848.46</v>
+        <v>200686.9</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>176862.66</v>
+        <v>117324.71</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -1849,14 +1849,14 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>110594.35</v>
+        <v>110680.71</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -1877,7 +1877,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>97883.31</v>
+        <v>93423.16</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>74717.2</v>
+        <v>29566.7</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -1933,7 +1933,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>33912.09</v>
+        <v>24650.63</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -1961,7 +1961,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>20956.02</v>
+        <v>14923.36</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -1980,44 +1980,44 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PANCAKE UNIV2 (Ethereum)</t>
+          <t>SUSHI UNIV2 (Polygon)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pancake-1-univ2</t>
+          <t>sushi-137-univ2</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>20502.32</v>
+        <v>13765.25</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://pancakeswap.finance/</t>
+          <t>https://sushi.com/</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SUSHI UNIV2 (Polygon)</t>
+          <t>SHIBASWAP UNIV2 (Ethereum)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>sushi-137-univ2</t>
+          <t>shibaswap-1-univ2</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>19344.31</v>
+        <v>13121.95</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -2029,119 +2029,119 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://sushi.com/</t>
+          <t>https://shibaswap.com/</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>YoBit</t>
+          <t>PANCAKE UNIV2 (Ethereum)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>yobit</t>
+          <t>pancake-1-univ2</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>13919.57</v>
+        <v>11481.01</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://yobit.net</t>
+          <t>https://pancakeswap.finance/</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BTC Trade UA</t>
+          <t>YoBit</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>btctradeua</t>
+          <t>yobit</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5490.81</v>
+        <v>10731.64</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://btc-trade.com.ua/</t>
+          <t>https://yobit.net</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>UNISWAP UNIV2 (Arbitrum)</t>
+          <t>BTC Trade UA</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>uniswap-42161-univ2</t>
+          <t>btctradeua</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5477.01</v>
+        <v>4388.82</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://uniswap.org/</t>
+          <t>https://btc-trade.com.ua/</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SHIBASWAP UNIV2 (Ethereum)</t>
+          <t>UNISWAP UNIV2 (Arbitrum)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>shibaswap-1-univ2</t>
+          <t>uniswap-42161-univ2</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4451.32</v>
+        <v>4277.3</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://shibaswap.com/</t>
+          <t>https://uniswap.org/</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1265.47</v>
+        <v>1117.18</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -2176,79 +2176,79 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PANCAKE UNIV2 (Arbitrum)</t>
+          <t>SUSHI UNIV3 (Ethereum)</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pancake-42161-univ2</t>
+          <t>sushi-1-univ3</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>74.29000000000001</v>
+        <v>60.09</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://pancakeswap.finance/</t>
+          <t>https://sushi.com/</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SUSHI UNIV3 (Ethereum)</t>
+          <t>PANCAKE UNIV2 (Arbitrum)</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>sushi-1-univ3</t>
+          <t>pancake-42161-univ2</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>52.81</v>
+        <v>36.14</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://sushi.com/</t>
+          <t>https://pancakeswap.finance/</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>UNISWAP UNIV2 (Optimism)</t>
+          <t>UNISWAP UNIV2 (Polygon)</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>uniswap-10-univ2</t>
+          <t>uniswap-137-univ2</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>51.05</v>
+        <v>26.36</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2260,44 +2260,44 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>UNISWAP UNIV2 (Polygon)</t>
+          <t>CAMELOT UNIV2 (Arbitrum)</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>uniswap-137-univ2</t>
+          <t>camelot-42161-univ2</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>48.98</v>
+        <v>22</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://uniswap.org/</t>
+          <t>https://camelot.exchange/</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CAMELOT UNIV2 (Arbitrum)</t>
+          <t>UNISWAP UNIV2 (Optimism)</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>camelot-42161-univ2</t>
+          <t>uniswap-10-univ2</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>40.77</v>
+        <v>20.45</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -2309,19 +2309,19 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://camelot.exchange/</t>
+          <t>https://uniswap.org/</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PANCAKE UNIV3 (Base)</t>
+          <t>PANCAKE UNIV2 (Base)</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>pancake-8453-univ3</t>
+          <t>pancake-8453-univ2</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -2344,12 +2344,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SUSHI UNIV3 (Base)</t>
+          <t>FRAXSWAP UNIV2 (Ethereum)</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>sushi-8453-univ3</t>
+          <t>fraxswap-1-univ2</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://sushi.com/</t>
+          <t>https://fraxswap.com/</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>UNISWAP UNIV2 (Base)</t>
+          <t>FRAXSWAP UNIV2 (Arbitrum)</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>uniswap-8453-univ2</t>
+          <t>fraxswap-42161-univ2</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -2388,24 +2388,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://uniswap.org/</t>
+          <t>https://fraxswap.com/</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>WazirX</t>
+          <t>Hotbit</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>wazirx</t>
+          <t>hotbit</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -2421,19 +2421,19 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://wazirx.com/</t>
+          <t>https://www.hotbit.io/</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>FRAXSWAP UNIV2 (Arbitrum)</t>
+          <t>Kuna</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>fraxswap-42161-univ2</t>
+          <t>kuna</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -2449,19 +2449,19 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://fraxswap.com/</t>
+          <t>https://kuna.io/</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Hotbit</t>
+          <t>Osmosis</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>hotbit</t>
+          <t>osmosis</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -2477,19 +2477,19 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://www.hotbit.io/</t>
+          <t>https://app.osmosis.zone/</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Kuna</t>
+          <t>Okex</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>kuna</t>
+          <t>okex</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -2505,19 +2505,19 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://kuna.io/</t>
+          <t>https://www.okex.com/</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Mercatox</t>
+          <t>OkCoin</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>mercatox</t>
+          <t>okcoin</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -2533,19 +2533,19 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://mercatox.com/</t>
+          <t>https://www.okcoin.com</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Osmosis</t>
+          <t>SushiSwap</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>osmosis</t>
+          <t>sushi</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -2561,19 +2561,19 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://app.osmosis.zone/</t>
+          <t>https://sushi.com/</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Okex</t>
+          <t>SMARDEX UNIV2 (Base)</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>okex</t>
+          <t>smardex-8453-univ2</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>https://www.okex.com/</t>
+          <t>https://smardex.io/</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>OkCoin</t>
+          <t>SMARDEX UNIV2 (Arbitrum)</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>okcoin</t>
+          <t>smardex-42161-univ2</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -2617,19 +2617,19 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>https://www.okcoin.com</t>
+          <t>https://smardex.io/</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SushiSwap</t>
+          <t>SMARDEX UNIV2 (Ethereum)</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>sushi</t>
+          <t>smardex-1-univ2</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -2645,19 +2645,19 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>https://sushi.com/</t>
+          <t>https://smardex.io/</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SMARDEX UNIV2 (Base)</t>
+          <t>SMARDEX UNIV2 (Polygon)</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>smardex-8453-univ2</t>
+          <t>smardex-137-univ2</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -2680,12 +2680,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SMARDEX UNIV2 (Arbitrum)</t>
+          <t>Quoine</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>smardex-42161-univ2</t>
+          <t>quoine</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -2701,19 +2701,19 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>https://smardex.io/</t>
+          <t>https://quoine.com/</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SMARDEX UNIV2 (Ethereum)</t>
+          <t>Liquid</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>smardex-1-univ2</t>
+          <t>qryptos</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -2729,19 +2729,19 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>https://smardex.io/</t>
+          <t>https://www.qryptos.com/</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SMARDEX UNIV2 (Polygon)</t>
+          <t>Poloniex</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>smardex-137-univ2</t>
+          <t>poloniex</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -2757,19 +2757,19 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>https://smardex.io/</t>
+          <t>https://poloniex.com/</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Quoine</t>
+          <t>PANCAKE UNIV3 (Base)</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>quoine</t>
+          <t>pancake-8453-univ3</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -2780,24 +2780,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://quoine.com/</t>
+          <t>https://pancakeswap.finance/</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Liquid</t>
+          <t>SUSHI UNIV3 (Base)</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>qryptos</t>
+          <t>sushi-8453-univ3</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -2808,24 +2808,24 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://www.qryptos.com/</t>
+          <t>https://sushi.com/</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Poloniex</t>
+          <t>UNISWAP UNIV2 (Base)</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>poloniex</t>
+          <t>uniswap-8453-univ2</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -2836,24 +2836,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://poloniex.com/</t>
+          <t>https://uniswap.org/</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SUSHI UNIV2 (Base)</t>
+          <t>WazirX</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>sushi-8453-univ2</t>
+          <t>wazirx</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -2864,24 +2864,24 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>https://sushi.com/</t>
+          <t>https://wazirx.com/</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>PANCAKE UNIV2 (Base)</t>
+          <t>FRAXSWAP UNIV2 (Polygon)</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>pancake-8453-univ2</t>
+          <t>fraxswap-137-univ2</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -2892,24 +2892,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>https://pancakeswap.finance/</t>
+          <t>https://fraxswap.com/</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>FRAXSWAP UNIV2 (Ethereum)</t>
+          <t>FRAXSWAP UNIV2 (Optimism)</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>fraxswap-1-univ2</t>
+          <t>fraxswap-10-univ2</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -2932,12 +2932,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>FRAXSWAP UNIV2 (Polygon)</t>
+          <t>ExMarkets</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>fraxswap-137-univ2</t>
+          <t>exmarkets</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -2953,19 +2953,19 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>https://fraxswap.com/</t>
+          <t>https://exmarkets.com/</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>FRAXSWAP UNIV2 (Optimism)</t>
+          <t>CURVE (Base)</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>fraxswap-10-univ2</t>
+          <t>curve-8453</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -2981,19 +2981,19 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>https://fraxswap.com/</t>
+          <t>https://curve.fi/</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ExMarkets</t>
+          <t>CURVE (Arbitrum)</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>exmarkets</t>
+          <t>curve-42161</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -3009,19 +3009,19 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>https://exmarkets.com/</t>
+          <t>https://curve.fi/</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>CURVE (Base)</t>
+          <t>CURVE (Polygon)</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>curve-8453</t>
+          <t>curve-137</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -3044,12 +3044,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>CURVE (Arbitrum)</t>
+          <t>The Rock Trading</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>curve-42161</t>
+          <t>therocktrading</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -3065,19 +3065,19 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>https://curve.fi/</t>
+          <t>https://www.therocktrading.com</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CURVE (Polygon)</t>
+          <t>THORChain</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>curve-137</t>
+          <t>thorchain</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>https://curve.fi/</t>
+          <t>https://thorchain.org/</t>
         </is>
       </c>
     </row>
@@ -3240,12 +3240,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>The Rock Trading</t>
+          <t>Coinbene</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>therocktrading</t>
+          <t>coinbene</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>https://www.therocktrading.com</t>
+          <t>https://www.coinbene.com</t>
         </is>
       </c>
     </row>
